--- a/icd 10 codelists.xlsx
+++ b/icd 10 codelists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Group_work\Georgie\Codelists\Clean_codelists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmm21\Documents\GitHub\Fibrotic-multimorbidity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDC1A723-8A78-4FE9-8966-BC037D4F8088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38009EDC-20C7-4023-B7CF-D98C4DF499E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="853" firstSheet="5" activeTab="18" xr2:uid="{7F66B9E0-812B-4219-B7A9-35803DB1F8FA}"/>
+    <workbookView xWindow="2115" yWindow="1005" windowWidth="22950" windowHeight="15315" tabRatio="956" xr2:uid="{7F66B9E0-812B-4219-B7A9-35803DB1F8FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrhythmia" sheetId="1" r:id="rId1"/>
@@ -54,12 +54,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="180">
   <si>
     <t>ICD 10</t>
-  </si>
-  <si>
-    <t>SNOMED CT medcode id</t>
   </si>
   <si>
     <t>I47</t>
@@ -948,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB1890A-FFA0-48AF-A694-E33A8AAD9D62}">
-  <dimension ref="B2:E3"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,17 +956,14 @@
     <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -979,135 +973,132 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03503C0B-E572-4383-B9CE-CCC466D2F6EC}">
-  <dimension ref="B2:E26"/>
+  <dimension ref="B2:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1117,170 +1108,167 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF170C8F-5D98-41AC-8633-5A8B1CED47D5}">
-  <dimension ref="B2:E33"/>
+  <dimension ref="B2:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1290,55 +1278,52 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82FED93-BA08-4E5F-976A-351D6A7139BF}">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1348,40 +1333,37 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAC3C1B-CC1C-4958-A419-4134A4D94E53}">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1391,30 +1373,27 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49D5B29-2FA0-4660-A9C4-808E67BCEF42}">
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1424,35 +1403,32 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8651D286-3322-41D0-8901-30533A088B43}">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1462,100 +1438,97 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCAEDE6-EEC6-4A5D-8188-7927A4A08784}">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1565,50 +1538,47 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14AF5E4-AFC3-4317-B52C-C262BEF987B4}">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1618,85 +1588,82 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11A318-9F45-43AE-B76B-19F225321CD8}">
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V45" sqref="V45"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1706,65 +1673,62 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E72E649-8C9A-492A-9970-1B748094E021}">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1774,55 +1738,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C9C8AB-B7A0-45D5-9314-6CCA2DFA72A8}">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1832,55 +1793,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17028318-02EB-4298-AF49-8A8B604DCCDA}">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1890,35 +1848,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA09729-A6D5-4284-A106-56455B900039}">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1928,30 +1883,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EF3868-0156-49A5-AA30-902610F7DFAF}">
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1961,80 +1913,77 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EFCD77-0CAD-49E9-8D47-7595B995EBC1}">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2044,115 +1993,112 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8CF23F-67E0-4849-A1BA-FB45F0D14BB2}">
-  <dimension ref="B2:E22"/>
+  <dimension ref="B2:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2162,45 +2108,42 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95374A65-C3A9-4F7F-800E-9A4A017BC242}">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2210,75 +2153,72 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1B2598-C7BE-4976-9C82-4DBE2C464C76}">
-  <dimension ref="B2:E14"/>
+  <dimension ref="B2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
